--- a/MesAdmin/Template/LBJ/维保基础信息.xlsx
+++ b/MesAdmin/Template/LBJ/维保基础信息.xlsx
@@ -24,10 +24,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>岗位号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>维保序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -44,7 +40,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OP10</t>
+    <t>资产编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LBJ-947-009</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -407,14 +407,14 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="10.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="2" customWidth="1"/>
     <col min="5" max="5" width="34.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="36.25" style="2" customWidth="1"/>
@@ -429,16 +429,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -446,7 +446,7 @@
         <v>9902</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>

--- a/MesAdmin/Template/LBJ/维保基础信息.xlsx
+++ b/MesAdmin/Template/LBJ/维保基础信息.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>工厂</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,15 +36,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>J503</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>资产编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LBJ-947-009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J507</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LBJ-947-010</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -404,24 +420,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="10.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="36.25" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="3" max="3" width="15.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2" customWidth="1"/>
+    <col min="6" max="6" width="34.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="36.25" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -429,29 +446,52 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>9902</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>9902</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2">
         <v>1</v>
       </c>
     </row>
